--- a/cases/demos/D2 - multi hub.xlsx
+++ b/cases/demos/D2 - multi hub.xlsx
@@ -1936,6 +1936,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2277,11 +2278,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="85211776"/>
-        <c:axId val="85213568"/>
+        <c:axId val="154905600"/>
+        <c:axId val="154907392"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="85211776"/>
+        <c:axId val="154905600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2291,12 +2292,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85213568"/>
+        <c:crossAx val="154907392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="85213568"/>
+        <c:axId val="154907392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2307,13 +2308,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85211776"/>
+        <c:crossAx val="154905600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2343,6 +2345,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2684,11 +2687,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="110367872"/>
-        <c:axId val="110369408"/>
+        <c:axId val="154748416"/>
+        <c:axId val="154749952"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="110367872"/>
+        <c:axId val="154748416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2698,12 +2701,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="110369408"/>
+        <c:crossAx val="154749952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="110369408"/>
+        <c:axId val="154749952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2714,13 +2717,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="110367872"/>
+        <c:crossAx val="154748416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3093,7 +3097,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -3167,9 +3171,7 @@
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M37" sqref="M37"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <sheetData>
